--- a/Pruebas_excel/02. HOJAS DE VIDA VEHICULOS/KWO 032/Preoperacionales/Copy.xlsx
+++ b/Pruebas_excel/02. HOJAS DE VIDA VEHICULOS/KWO 032/Preoperacionales/Copy.xlsx
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1435,6 +1435,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,7 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,7 +2542,7 @@
       <c r="K6" s="79" t="n"/>
       <c r="L6" s="107" t="inlineStr">
         <is>
-          <t>PP-006-2024</t>
+          <t>PP-066-2024</t>
         </is>
       </c>
       <c r="M6" s="147" t="n"/>
@@ -2566,7 +2571,9 @@
         </is>
       </c>
       <c r="K7" s="79" t="n"/>
-      <c r="L7" s="107" t="n"/>
+      <c r="L7" s="148" t="n">
+        <v>45524</v>
+      </c>
       <c r="M7" s="147" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -2579,7 +2586,9 @@
       <c r="C8" s="144" t="n"/>
       <c r="D8" s="144" t="n"/>
       <c r="E8" s="147" t="n"/>
-      <c r="F8" s="105" t="n"/>
+      <c r="F8" s="149" t="n">
+        <v>45524</v>
+      </c>
       <c r="G8" s="144" t="n"/>
       <c r="H8" s="144" t="n"/>
       <c r="I8" s="144" t="n"/>
@@ -2589,7 +2598,9 @@
         </is>
       </c>
       <c r="K8" s="79" t="n"/>
-      <c r="L8" s="107" t="n"/>
+      <c r="L8" s="148" t="n">
+        <v>45524</v>
+      </c>
       <c r="M8" s="147" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -2642,7 +2653,7 @@
     <row r="10">
       <c r="A10" s="89" t="n"/>
       <c r="F10" s="90" t="n"/>
-      <c r="G10" s="148" t="inlineStr">
+      <c r="G10" s="150" t="inlineStr">
         <is>
           <t>ESTADO (Conforme, No Conforme, No Aplica)</t>
         </is>
@@ -2685,11 +2696,7 @@
       <c r="I12" s="17" t="n"/>
       <c r="J12" s="17" t="n"/>
       <c r="K12" s="17" t="n"/>
-      <c r="L12" s="17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L12" s="17" t="n"/>
       <c r="M12" s="18" t="n"/>
     </row>
     <row r="13">
@@ -2708,11 +2715,7 @@
       <c r="I13" s="20" t="n"/>
       <c r="J13" s="20" t="n"/>
       <c r="K13" s="20" t="n"/>
-      <c r="L13" s="20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L13" s="20" t="n"/>
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -2731,11 +2734,7 @@
       <c r="I14" s="23" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
-      <c r="L14" s="23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L14" s="23" t="n"/>
       <c r="M14" s="24" t="n"/>
     </row>
     <row r="15">
@@ -2758,11 +2757,7 @@
       <c r="I15" s="17" t="n"/>
       <c r="J15" s="17" t="n"/>
       <c r="K15" s="17" t="n"/>
-      <c r="L15" s="17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L15" s="17" t="n"/>
       <c r="M15" s="18" t="n"/>
     </row>
     <row r="16">
@@ -2781,9 +2776,7 @@
       <c r="I16" s="26" t="n"/>
       <c r="J16" s="27" t="n"/>
       <c r="K16" s="26" t="n"/>
-      <c r="L16" s="26" t="n">
-        <v>2024</v>
-      </c>
+      <c r="L16" s="26" t="n"/>
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
@@ -2802,11 +2795,7 @@
       <c r="I17" s="26" t="n"/>
       <c r="J17" s="26" t="n"/>
       <c r="K17" s="26" t="n"/>
-      <c r="L17" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L17" s="26" t="n"/>
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
@@ -2825,11 +2814,7 @@
       <c r="I18" s="26" t="n"/>
       <c r="J18" s="26" t="n"/>
       <c r="K18" s="26" t="n"/>
-      <c r="L18" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L18" s="26" t="n"/>
       <c r="M18" s="21" t="n"/>
     </row>
     <row r="19">
@@ -2848,11 +2833,7 @@
       <c r="I19" s="26" t="n"/>
       <c r="J19" s="26" t="n"/>
       <c r="K19" s="26" t="n"/>
-      <c r="L19" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L19" s="26" t="n"/>
       <c r="M19" s="21" t="n"/>
     </row>
     <row r="20">
@@ -2871,11 +2852,7 @@
       <c r="I20" s="26" t="n"/>
       <c r="J20" s="26" t="n"/>
       <c r="K20" s="26" t="n"/>
-      <c r="L20" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L20" s="26" t="n"/>
       <c r="M20" s="21" t="n"/>
     </row>
     <row r="21">
@@ -2894,11 +2871,7 @@
       <c r="I21" s="26" t="n"/>
       <c r="J21" s="26" t="n"/>
       <c r="K21" s="26" t="n"/>
-      <c r="L21" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L21" s="26" t="n"/>
       <c r="M21" s="21" t="n"/>
     </row>
     <row r="22">
@@ -2917,11 +2890,7 @@
       <c r="I22" s="26" t="n"/>
       <c r="J22" s="26" t="n"/>
       <c r="K22" s="26" t="n"/>
-      <c r="L22" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L22" s="26" t="n"/>
       <c r="M22" s="21" t="n"/>
     </row>
     <row r="23">
@@ -2940,11 +2909,7 @@
       <c r="I23" s="26" t="n"/>
       <c r="J23" s="26" t="n"/>
       <c r="K23" s="26" t="n"/>
-      <c r="L23" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L23" s="26" t="n"/>
       <c r="M23" s="21" t="n"/>
     </row>
     <row r="24">
@@ -2963,11 +2928,7 @@
       <c r="I24" s="26" t="n"/>
       <c r="J24" s="26" t="n"/>
       <c r="K24" s="26" t="n"/>
-      <c r="L24" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L24" s="26" t="n"/>
       <c r="M24" s="21" t="n"/>
     </row>
     <row r="25">
@@ -2986,11 +2947,7 @@
       <c r="I25" s="26" t="n"/>
       <c r="J25" s="26" t="n"/>
       <c r="K25" s="26" t="n"/>
-      <c r="L25" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L25" s="26" t="n"/>
       <c r="M25" s="21" t="n"/>
     </row>
     <row r="26">
@@ -3009,11 +2966,7 @@
       <c r="I26" s="26" t="n"/>
       <c r="J26" s="26" t="n"/>
       <c r="K26" s="26" t="n"/>
-      <c r="L26" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L26" s="26" t="n"/>
       <c r="M26" s="21" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3059,11 +3012,7 @@
       <c r="I28" s="33" t="n"/>
       <c r="J28" s="33" t="n"/>
       <c r="K28" s="33" t="n"/>
-      <c r="L28" s="33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L28" s="33" t="n"/>
       <c r="M28" s="18" t="n"/>
     </row>
     <row r="29" ht="20.25" customHeight="1" s="76">
@@ -3081,11 +3030,7 @@
       <c r="I29" s="26" t="n"/>
       <c r="J29" s="26" t="n"/>
       <c r="K29" s="26" t="n"/>
-      <c r="L29" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L29" s="26" t="n"/>
       <c r="M29" s="21" t="n"/>
     </row>
     <row r="30" ht="21" customHeight="1" s="76">
@@ -3103,11 +3048,7 @@
       <c r="I30" s="26" t="n"/>
       <c r="J30" s="26" t="n"/>
       <c r="K30" s="26" t="n"/>
-      <c r="L30" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L30" s="26" t="n"/>
       <c r="M30" s="21" t="n"/>
     </row>
     <row r="31" ht="21" customHeight="1" s="76" thickBot="1">
@@ -3125,11 +3066,7 @@
       <c r="I31" s="35" t="n"/>
       <c r="J31" s="35" t="n"/>
       <c r="K31" s="35" t="n"/>
-      <c r="L31" s="35" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L31" s="35" t="n"/>
       <c r="M31" s="24" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3152,11 +3089,7 @@
       <c r="I32" s="33" t="n"/>
       <c r="J32" s="33" t="n"/>
       <c r="K32" s="33" t="n"/>
-      <c r="L32" s="33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L32" s="33" t="n"/>
       <c r="M32" s="18" t="n"/>
     </row>
     <row r="33">
@@ -3175,11 +3108,7 @@
       <c r="I33" s="26" t="n"/>
       <c r="J33" s="26" t="n"/>
       <c r="K33" s="26" t="n"/>
-      <c r="L33" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L33" s="26" t="n"/>
       <c r="M33" s="21" t="n"/>
     </row>
     <row r="34">
@@ -3198,11 +3127,7 @@
       <c r="I34" s="26" t="n"/>
       <c r="J34" s="26" t="n"/>
       <c r="K34" s="26" t="n"/>
-      <c r="L34" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L34" s="26" t="n"/>
       <c r="M34" s="21" t="n"/>
     </row>
     <row r="35">
@@ -3221,11 +3146,7 @@
       <c r="I35" s="26" t="n"/>
       <c r="J35" s="26" t="n"/>
       <c r="K35" s="26" t="n"/>
-      <c r="L35" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L35" s="26" t="n"/>
       <c r="M35" s="21" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3244,11 +3165,7 @@
       <c r="I36" s="35" t="n"/>
       <c r="J36" s="35" t="n"/>
       <c r="K36" s="35" t="n"/>
-      <c r="L36" s="35" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L36" s="35" t="n"/>
       <c r="M36" s="24" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3271,11 +3188,7 @@
       <c r="I37" s="33" t="n"/>
       <c r="J37" s="33" t="n"/>
       <c r="K37" s="33" t="n"/>
-      <c r="L37" s="33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L37" s="33" t="n"/>
       <c r="M37" s="18" t="n"/>
     </row>
     <row r="38">
@@ -3294,11 +3207,7 @@
       <c r="I38" s="26" t="n"/>
       <c r="J38" s="26" t="n"/>
       <c r="K38" s="26" t="n"/>
-      <c r="L38" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L38" s="26" t="n"/>
       <c r="M38" s="21" t="n"/>
     </row>
     <row r="39">
@@ -3317,11 +3226,7 @@
       <c r="I39" s="26" t="n"/>
       <c r="J39" s="26" t="n"/>
       <c r="K39" s="26" t="n"/>
-      <c r="L39" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L39" s="26" t="n"/>
       <c r="M39" s="21" t="n"/>
     </row>
     <row r="40">
@@ -3340,11 +3245,7 @@
       <c r="I40" s="26" t="n"/>
       <c r="J40" s="26" t="n"/>
       <c r="K40" s="26" t="n"/>
-      <c r="L40" s="26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L40" s="26" t="n"/>
       <c r="M40" s="21" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3363,11 +3264,7 @@
       <c r="I41" s="35" t="n"/>
       <c r="J41" s="35" t="n"/>
       <c r="K41" s="35" t="n"/>
-      <c r="L41" s="35" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="L41" s="35" t="n"/>
       <c r="M41" s="24" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3381,20 +3278,16 @@
       <c r="D42" s="78" t="n"/>
       <c r="E42" s="78" t="n"/>
       <c r="F42" s="79" t="n"/>
-      <c r="G42" s="11" t="inlineStr">
+      <c r="G42" s="11" t="n"/>
+      <c r="H42" s="10" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="H42" s="10" t="n"/>
       <c r="I42" s="10" t="n"/>
       <c r="J42" s="10" t="n"/>
       <c r="K42" s="10" t="n"/>
-      <c r="L42" s="10" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
+      <c r="L42" s="10" t="n"/>
       <c r="M42" s="9" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="76" thickBot="1">
@@ -3436,7 +3329,7 @@
       <c r="M44" s="9" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A45" s="149" t="inlineStr">
+      <c r="A45" s="151" t="inlineStr">
         <is>
           <t>Fecha de inspeccion realizada</t>
         </is>
@@ -3446,20 +3339,18 @@
       <c r="D45" s="87" t="n"/>
       <c r="E45" s="87" t="n"/>
       <c r="F45" s="88" t="n"/>
-      <c r="G45" s="159" t="n">
-        <v>45502</v>
-      </c>
-      <c r="H45" s="10" t="n"/>
+      <c r="G45" s="11" t="n"/>
+      <c r="H45" s="152" t="n">
+        <v>45524</v>
+      </c>
       <c r="I45" s="10" t="n"/>
       <c r="J45" s="10" t="n"/>
       <c r="K45" s="10" t="n"/>
-      <c r="L45" s="150" t="n">
-        <v>45500</v>
-      </c>
+      <c r="L45" s="10" t="n"/>
       <c r="M45" s="9" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A46" s="151" t="inlineStr">
+      <c r="A46" s="153" t="inlineStr">
         <is>
           <t>Si los hallazgos de la revisión ponen en riesgo su integridad en el desplazamiento, abstengase de movilizarse en el vehículo.</t>
         </is>
@@ -3541,259 +3432,255 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" s="76" thickTop="1">
       <c r="A49" s="46" t="n"/>
-      <c r="B49" s="152" t="n"/>
+      <c r="B49" s="154" t="n"/>
       <c r="C49" s="47" t="n"/>
-      <c r="D49" s="152" t="n"/>
+      <c r="D49" s="154" t="n"/>
       <c r="E49" s="47" t="n"/>
-      <c r="F49" s="152" t="n"/>
+      <c r="F49" s="154" t="n"/>
       <c r="G49" s="47" t="n"/>
-      <c r="H49" s="152" t="n"/>
+      <c r="H49" s="154" t="n"/>
       <c r="I49" s="47" t="n"/>
-      <c r="J49" s="152" t="n"/>
-      <c r="K49" s="47" t="inlineStr">
-        <is>
-          <t>En el campo Kilometraje inicial fue cambiado de 10000 a 2024.</t>
-        </is>
-      </c>
-      <c r="L49" s="152" t="n"/>
+      <c r="J49" s="154" t="n"/>
+      <c r="K49" s="47" t="n"/>
+      <c r="L49" s="154" t="n"/>
       <c r="M49" s="13" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="44" t="n"/>
-      <c r="B50" s="153" t="n"/>
+      <c r="B50" s="155" t="n"/>
       <c r="C50" s="45" t="n"/>
-      <c r="D50" s="153" t="n"/>
+      <c r="D50" s="155" t="n"/>
       <c r="E50" s="45" t="n"/>
-      <c r="F50" s="153" t="n"/>
+      <c r="F50" s="155" t="n"/>
       <c r="G50" s="45" t="n"/>
-      <c r="H50" s="153" t="n"/>
+      <c r="H50" s="155" t="n"/>
       <c r="I50" s="45" t="n"/>
-      <c r="J50" s="153" t="n"/>
+      <c r="J50" s="155" t="n"/>
       <c r="K50" s="45" t="n"/>
-      <c r="L50" s="153" t="n"/>
+      <c r="L50" s="155" t="n"/>
       <c r="M50" s="14" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="44" t="n"/>
-      <c r="B51" s="153" t="n"/>
+      <c r="B51" s="155" t="n"/>
       <c r="C51" s="45" t="n"/>
-      <c r="D51" s="153" t="n"/>
+      <c r="D51" s="155" t="n"/>
       <c r="E51" s="45" t="n"/>
-      <c r="F51" s="153" t="n"/>
+      <c r="F51" s="155" t="n"/>
       <c r="G51" s="45" t="n"/>
-      <c r="H51" s="153" t="n"/>
+      <c r="H51" s="155" t="n"/>
       <c r="I51" s="45" t="n"/>
-      <c r="J51" s="153" t="n"/>
+      <c r="J51" s="155" t="n"/>
       <c r="K51" s="45" t="n"/>
-      <c r="L51" s="153" t="n"/>
+      <c r="L51" s="155" t="n"/>
       <c r="M51" s="14" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="44" t="n"/>
-      <c r="B52" s="153" t="n"/>
+      <c r="B52" s="155" t="n"/>
       <c r="C52" s="45" t="n"/>
-      <c r="D52" s="153" t="n"/>
+      <c r="D52" s="155" t="n"/>
       <c r="E52" s="45" t="n"/>
-      <c r="F52" s="153" t="n"/>
+      <c r="F52" s="155" t="n"/>
       <c r="G52" s="45" t="n"/>
-      <c r="H52" s="153" t="n"/>
+      <c r="H52" s="155" t="n"/>
       <c r="I52" s="45" t="n"/>
-      <c r="J52" s="153" t="n"/>
+      <c r="J52" s="155" t="n"/>
       <c r="K52" s="45" t="n"/>
-      <c r="L52" s="153" t="n"/>
+      <c r="L52" s="155" t="n"/>
       <c r="M52" s="14" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="44" t="n"/>
-      <c r="B53" s="153" t="n"/>
+      <c r="B53" s="155" t="n"/>
       <c r="C53" s="45" t="n"/>
-      <c r="D53" s="153" t="n"/>
+      <c r="D53" s="155" t="n"/>
       <c r="E53" s="45" t="n"/>
-      <c r="F53" s="153" t="n"/>
+      <c r="F53" s="155" t="n"/>
       <c r="G53" s="45" t="n"/>
-      <c r="H53" s="153" t="n"/>
+      <c r="H53" s="155" t="n"/>
       <c r="I53" s="45" t="n"/>
-      <c r="J53" s="153" t="n"/>
+      <c r="J53" s="155" t="n"/>
       <c r="K53" s="45" t="n"/>
-      <c r="L53" s="153" t="n"/>
+      <c r="L53" s="155" t="n"/>
       <c r="M53" s="14" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="44" t="n"/>
-      <c r="B54" s="153" t="n"/>
+      <c r="B54" s="155" t="n"/>
       <c r="C54" s="45" t="n"/>
-      <c r="D54" s="153" t="n"/>
+      <c r="D54" s="155" t="n"/>
       <c r="E54" s="45" t="n"/>
-      <c r="F54" s="153" t="n"/>
+      <c r="F54" s="155" t="n"/>
       <c r="G54" s="45" t="n"/>
-      <c r="H54" s="153" t="n"/>
+      <c r="H54" s="155" t="n"/>
       <c r="I54" s="45" t="n"/>
-      <c r="J54" s="153" t="n"/>
+      <c r="J54" s="155" t="n"/>
       <c r="K54" s="45" t="n"/>
-      <c r="L54" s="153" t="n"/>
+      <c r="L54" s="155" t="n"/>
       <c r="M54" s="14" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="44" t="n"/>
-      <c r="B55" s="153" t="n"/>
+      <c r="B55" s="155" t="n"/>
       <c r="C55" s="45" t="n"/>
-      <c r="D55" s="153" t="n"/>
+      <c r="D55" s="155" t="n"/>
       <c r="E55" s="45" t="n"/>
-      <c r="F55" s="153" t="n"/>
+      <c r="F55" s="155" t="n"/>
       <c r="G55" s="45" t="n"/>
-      <c r="H55" s="153" t="n"/>
+      <c r="H55" s="155" t="n"/>
       <c r="I55" s="45" t="n"/>
-      <c r="J55" s="153" t="n"/>
+      <c r="J55" s="155" t="n"/>
       <c r="K55" s="45" t="n"/>
-      <c r="L55" s="153" t="n"/>
+      <c r="L55" s="155" t="n"/>
       <c r="M55" s="14" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="44" t="n"/>
-      <c r="B56" s="153" t="n"/>
+      <c r="B56" s="155" t="n"/>
       <c r="C56" s="45" t="n"/>
-      <c r="D56" s="153" t="n"/>
+      <c r="D56" s="155" t="n"/>
       <c r="E56" s="45" t="n"/>
-      <c r="F56" s="153" t="n"/>
+      <c r="F56" s="155" t="n"/>
       <c r="G56" s="45" t="n"/>
-      <c r="H56" s="153" t="n"/>
+      <c r="H56" s="155" t="n"/>
       <c r="I56" s="45" t="n"/>
-      <c r="J56" s="153" t="n"/>
+      <c r="J56" s="155" t="n"/>
       <c r="K56" s="45" t="n"/>
-      <c r="L56" s="153" t="n"/>
+      <c r="L56" s="155" t="n"/>
       <c r="M56" s="14" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="44" t="n"/>
-      <c r="B57" s="153" t="n"/>
+      <c r="B57" s="155" t="n"/>
       <c r="C57" s="45" t="n"/>
-      <c r="D57" s="153" t="n"/>
+      <c r="D57" s="155" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="153" t="n"/>
+      <c r="F57" s="155" t="n"/>
       <c r="G57" s="45" t="n"/>
-      <c r="H57" s="153" t="n"/>
+      <c r="H57" s="155" t="n"/>
       <c r="I57" s="45" t="n"/>
-      <c r="J57" s="153" t="n"/>
+      <c r="J57" s="155" t="n"/>
       <c r="K57" s="45" t="n"/>
-      <c r="L57" s="153" t="n"/>
+      <c r="L57" s="155" t="n"/>
       <c r="M57" s="14" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="44" t="n"/>
-      <c r="B58" s="153" t="n"/>
+      <c r="B58" s="155" t="n"/>
       <c r="C58" s="45" t="n"/>
-      <c r="D58" s="153" t="n"/>
+      <c r="D58" s="155" t="n"/>
       <c r="E58" s="45" t="n"/>
-      <c r="F58" s="153" t="n"/>
+      <c r="F58" s="155" t="n"/>
       <c r="G58" s="45" t="n"/>
-      <c r="H58" s="153" t="n"/>
+      <c r="H58" s="155" t="n"/>
       <c r="I58" s="45" t="n"/>
-      <c r="J58" s="153" t="n"/>
+      <c r="J58" s="155" t="n"/>
       <c r="K58" s="45" t="n"/>
-      <c r="L58" s="153" t="n"/>
+      <c r="L58" s="155" t="n"/>
       <c r="M58" s="14" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="44" t="n"/>
-      <c r="B59" s="153" t="n"/>
+      <c r="B59" s="155" t="n"/>
       <c r="C59" s="45" t="n"/>
-      <c r="D59" s="153" t="n"/>
+      <c r="D59" s="155" t="n"/>
       <c r="E59" s="45" t="n"/>
-      <c r="F59" s="153" t="n"/>
+      <c r="F59" s="155" t="n"/>
       <c r="G59" s="45" t="n"/>
-      <c r="H59" s="153" t="n"/>
+      <c r="H59" s="155" t="n"/>
       <c r="I59" s="45" t="n"/>
-      <c r="J59" s="153" t="n"/>
+      <c r="J59" s="155" t="n"/>
       <c r="K59" s="45" t="n"/>
-      <c r="L59" s="153" t="n"/>
+      <c r="L59" s="155" t="n"/>
       <c r="M59" s="14" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="44" t="n"/>
-      <c r="B60" s="153" t="n"/>
+      <c r="B60" s="155" t="n"/>
       <c r="C60" s="45" t="n"/>
-      <c r="D60" s="153" t="n"/>
+      <c r="D60" s="155" t="n"/>
       <c r="E60" s="45" t="n"/>
-      <c r="F60" s="153" t="n"/>
+      <c r="F60" s="155" t="n"/>
       <c r="G60" s="45" t="n"/>
-      <c r="H60" s="153" t="n"/>
+      <c r="H60" s="155" t="n"/>
       <c r="I60" s="45" t="n"/>
-      <c r="J60" s="153" t="n"/>
+      <c r="J60" s="155" t="n"/>
       <c r="K60" s="45" t="n"/>
-      <c r="L60" s="153" t="n"/>
+      <c r="L60" s="155" t="n"/>
       <c r="M60" s="14" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="44" t="n"/>
-      <c r="B61" s="153" t="n"/>
+      <c r="B61" s="155" t="n"/>
       <c r="C61" s="45" t="n"/>
-      <c r="D61" s="153" t="n"/>
+      <c r="D61" s="155" t="n"/>
       <c r="E61" s="45" t="n"/>
-      <c r="F61" s="153" t="n"/>
+      <c r="F61" s="155" t="n"/>
       <c r="G61" s="45" t="n"/>
-      <c r="H61" s="153" t="n"/>
+      <c r="H61" s="155" t="n"/>
       <c r="I61" s="45" t="n"/>
-      <c r="J61" s="153" t="n"/>
+      <c r="J61" s="155" t="n"/>
       <c r="K61" s="45" t="n"/>
-      <c r="L61" s="153" t="n"/>
+      <c r="L61" s="155" t="n"/>
       <c r="M61" s="14" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="44" t="n"/>
-      <c r="B62" s="153" t="n"/>
+      <c r="B62" s="155" t="n"/>
       <c r="C62" s="45" t="n"/>
-      <c r="D62" s="153" t="n"/>
+      <c r="D62" s="155" t="n"/>
       <c r="E62" s="45" t="n"/>
-      <c r="F62" s="153" t="n"/>
+      <c r="F62" s="155" t="n"/>
       <c r="G62" s="45" t="n"/>
-      <c r="H62" s="153" t="n"/>
+      <c r="H62" s="155" t="n"/>
       <c r="I62" s="45" t="n"/>
-      <c r="J62" s="153" t="n"/>
+      <c r="J62" s="155" t="n"/>
       <c r="K62" s="45" t="n"/>
-      <c r="L62" s="153" t="n"/>
+      <c r="L62" s="155" t="n"/>
       <c r="M62" s="14" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="129" t="n"/>
-      <c r="B63" s="154" t="n"/>
+      <c r="B63" s="156" t="n"/>
       <c r="C63" s="130" t="n"/>
-      <c r="D63" s="154" t="n"/>
+      <c r="D63" s="156" t="n"/>
       <c r="E63" s="130" t="n"/>
-      <c r="F63" s="154" t="n"/>
+      <c r="F63" s="156" t="n"/>
       <c r="G63" s="130" t="n"/>
-      <c r="H63" s="154" t="n"/>
+      <c r="H63" s="156" t="n"/>
       <c r="I63" s="130" t="n"/>
-      <c r="J63" s="154" t="n"/>
+      <c r="J63" s="156" t="n"/>
       <c r="K63" s="130" t="n"/>
-      <c r="L63" s="154" t="n"/>
+      <c r="L63" s="156" t="n"/>
       <c r="M63" s="131" t="n"/>
     </row>
     <row r="64" ht="63" customHeight="1" s="76" thickBot="1">
-      <c r="A64" s="155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OBSERVACIONES:, </t>
-        </is>
-      </c>
-      <c r="B64" s="156" t="n"/>
-      <c r="C64" s="156" t="n"/>
-      <c r="D64" s="156" t="n"/>
-      <c r="E64" s="156" t="n"/>
-      <c r="F64" s="156" t="n"/>
-      <c r="G64" s="156" t="n"/>
-      <c r="H64" s="156" t="n"/>
-      <c r="I64" s="156" t="n"/>
-      <c r="J64" s="156" t="n"/>
-      <c r="K64" s="156" t="n"/>
-      <c r="L64" s="156" t="n"/>
-      <c r="M64" s="157" t="n"/>
+      <c r="A64" s="157" t="inlineStr">
+        <is>
+          <t>OBSERVACIONES:</t>
+        </is>
+      </c>
+      <c r="B64" s="158" t="n"/>
+      <c r="C64" s="158" t="n"/>
+      <c r="D64" s="158" t="n"/>
+      <c r="E64" s="158" t="n"/>
+      <c r="F64" s="158" t="n"/>
+      <c r="G64" s="158" t="n"/>
+      <c r="H64" s="158" t="n"/>
+      <c r="I64" s="158" t="n"/>
+      <c r="J64" s="158" t="n"/>
+      <c r="K64" s="158" t="n"/>
+      <c r="L64" s="158" t="n"/>
+      <c r="M64" s="159" t="n"/>
     </row>
     <row r="65" ht="15.75" customHeight="1" s="76" thickTop="1"/>
   </sheetData>
   <mergeCells count="163">
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G10:M11"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="F1:I3"/>
+    <mergeCell ref="G10:M11"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="J5:K5"/>
@@ -4218,7 +4105,7 @@
     <row r="10">
       <c r="A10" s="89" t="n"/>
       <c r="F10" s="90" t="n"/>
-      <c r="G10" s="148" t="inlineStr">
+      <c r="G10" s="150" t="inlineStr">
         <is>
           <t>ESTADO (Conforme, No Conforme, No Aplica)</t>
         </is>
@@ -4890,7 +4777,7 @@
       <c r="M44" s="9" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A45" s="149" t="inlineStr">
+      <c r="A45" s="151" t="inlineStr">
         <is>
           <t>Fecha de inspeccion realizada</t>
         </is>
@@ -4909,7 +4796,7 @@
       <c r="M45" s="9" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A46" s="151" t="inlineStr">
+      <c r="A46" s="153" t="inlineStr">
         <is>
           <t>Si los hallazgos de la revisión ponen en riesgo su integridad en el desplazamiento, abstengase de movilizarse en el vehículo.</t>
         </is>
@@ -4991,236 +4878,236 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" s="76" thickTop="1">
       <c r="A49" s="46" t="n"/>
-      <c r="B49" s="152" t="n"/>
+      <c r="B49" s="154" t="n"/>
       <c r="C49" s="47" t="n"/>
-      <c r="D49" s="152" t="n"/>
+      <c r="D49" s="154" t="n"/>
       <c r="E49" s="47" t="n"/>
-      <c r="F49" s="152" t="n"/>
+      <c r="F49" s="154" t="n"/>
       <c r="G49" s="47" t="n"/>
-      <c r="H49" s="152" t="n"/>
+      <c r="H49" s="154" t="n"/>
       <c r="I49" s="47" t="n"/>
-      <c r="J49" s="152" t="n"/>
+      <c r="J49" s="154" t="n"/>
       <c r="K49" s="47" t="n"/>
-      <c r="L49" s="152" t="n"/>
+      <c r="L49" s="154" t="n"/>
       <c r="M49" s="13" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="44" t="n"/>
-      <c r="B50" s="153" t="n"/>
+      <c r="B50" s="155" t="n"/>
       <c r="C50" s="45" t="n"/>
-      <c r="D50" s="153" t="n"/>
+      <c r="D50" s="155" t="n"/>
       <c r="E50" s="45" t="n"/>
-      <c r="F50" s="153" t="n"/>
+      <c r="F50" s="155" t="n"/>
       <c r="G50" s="45" t="n"/>
-      <c r="H50" s="153" t="n"/>
+      <c r="H50" s="155" t="n"/>
       <c r="I50" s="45" t="n"/>
-      <c r="J50" s="153" t="n"/>
+      <c r="J50" s="155" t="n"/>
       <c r="K50" s="45" t="n"/>
-      <c r="L50" s="153" t="n"/>
+      <c r="L50" s="155" t="n"/>
       <c r="M50" s="14" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="44" t="n"/>
-      <c r="B51" s="153" t="n"/>
+      <c r="B51" s="155" t="n"/>
       <c r="C51" s="45" t="n"/>
-      <c r="D51" s="153" t="n"/>
+      <c r="D51" s="155" t="n"/>
       <c r="E51" s="45" t="n"/>
-      <c r="F51" s="153" t="n"/>
+      <c r="F51" s="155" t="n"/>
       <c r="G51" s="45" t="n"/>
-      <c r="H51" s="153" t="n"/>
+      <c r="H51" s="155" t="n"/>
       <c r="I51" s="45" t="n"/>
-      <c r="J51" s="153" t="n"/>
+      <c r="J51" s="155" t="n"/>
       <c r="K51" s="45" t="n"/>
-      <c r="L51" s="153" t="n"/>
+      <c r="L51" s="155" t="n"/>
       <c r="M51" s="14" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="44" t="n"/>
-      <c r="B52" s="153" t="n"/>
+      <c r="B52" s="155" t="n"/>
       <c r="C52" s="45" t="n"/>
-      <c r="D52" s="153" t="n"/>
+      <c r="D52" s="155" t="n"/>
       <c r="E52" s="45" t="n"/>
-      <c r="F52" s="153" t="n"/>
+      <c r="F52" s="155" t="n"/>
       <c r="G52" s="45" t="n"/>
-      <c r="H52" s="153" t="n"/>
+      <c r="H52" s="155" t="n"/>
       <c r="I52" s="45" t="n"/>
-      <c r="J52" s="153" t="n"/>
+      <c r="J52" s="155" t="n"/>
       <c r="K52" s="45" t="n"/>
-      <c r="L52" s="153" t="n"/>
+      <c r="L52" s="155" t="n"/>
       <c r="M52" s="14" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="44" t="n"/>
-      <c r="B53" s="153" t="n"/>
+      <c r="B53" s="155" t="n"/>
       <c r="C53" s="45" t="n"/>
-      <c r="D53" s="153" t="n"/>
+      <c r="D53" s="155" t="n"/>
       <c r="E53" s="45" t="n"/>
-      <c r="F53" s="153" t="n"/>
+      <c r="F53" s="155" t="n"/>
       <c r="G53" s="45" t="n"/>
-      <c r="H53" s="153" t="n"/>
+      <c r="H53" s="155" t="n"/>
       <c r="I53" s="45" t="n"/>
-      <c r="J53" s="153" t="n"/>
+      <c r="J53" s="155" t="n"/>
       <c r="K53" s="45" t="n"/>
-      <c r="L53" s="153" t="n"/>
+      <c r="L53" s="155" t="n"/>
       <c r="M53" s="14" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="44" t="n"/>
-      <c r="B54" s="153" t="n"/>
+      <c r="B54" s="155" t="n"/>
       <c r="C54" s="45" t="n"/>
-      <c r="D54" s="153" t="n"/>
+      <c r="D54" s="155" t="n"/>
       <c r="E54" s="45" t="n"/>
-      <c r="F54" s="153" t="n"/>
+      <c r="F54" s="155" t="n"/>
       <c r="G54" s="45" t="n"/>
-      <c r="H54" s="153" t="n"/>
+      <c r="H54" s="155" t="n"/>
       <c r="I54" s="45" t="n"/>
-      <c r="J54" s="153" t="n"/>
+      <c r="J54" s="155" t="n"/>
       <c r="K54" s="45" t="n"/>
-      <c r="L54" s="153" t="n"/>
+      <c r="L54" s="155" t="n"/>
       <c r="M54" s="14" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="44" t="n"/>
-      <c r="B55" s="153" t="n"/>
+      <c r="B55" s="155" t="n"/>
       <c r="C55" s="45" t="n"/>
-      <c r="D55" s="153" t="n"/>
+      <c r="D55" s="155" t="n"/>
       <c r="E55" s="45" t="n"/>
-      <c r="F55" s="153" t="n"/>
+      <c r="F55" s="155" t="n"/>
       <c r="G55" s="45" t="n"/>
-      <c r="H55" s="153" t="n"/>
+      <c r="H55" s="155" t="n"/>
       <c r="I55" s="45" t="n"/>
-      <c r="J55" s="153" t="n"/>
+      <c r="J55" s="155" t="n"/>
       <c r="K55" s="45" t="n"/>
-      <c r="L55" s="153" t="n"/>
+      <c r="L55" s="155" t="n"/>
       <c r="M55" s="14" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="44" t="n"/>
-      <c r="B56" s="153" t="n"/>
+      <c r="B56" s="155" t="n"/>
       <c r="C56" s="45" t="n"/>
-      <c r="D56" s="153" t="n"/>
+      <c r="D56" s="155" t="n"/>
       <c r="E56" s="45" t="n"/>
-      <c r="F56" s="153" t="n"/>
+      <c r="F56" s="155" t="n"/>
       <c r="G56" s="45" t="n"/>
-      <c r="H56" s="153" t="n"/>
+      <c r="H56" s="155" t="n"/>
       <c r="I56" s="45" t="n"/>
-      <c r="J56" s="153" t="n"/>
+      <c r="J56" s="155" t="n"/>
       <c r="K56" s="45" t="n"/>
-      <c r="L56" s="153" t="n"/>
+      <c r="L56" s="155" t="n"/>
       <c r="M56" s="14" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="44" t="n"/>
-      <c r="B57" s="153" t="n"/>
+      <c r="B57" s="155" t="n"/>
       <c r="C57" s="45" t="n"/>
-      <c r="D57" s="153" t="n"/>
+      <c r="D57" s="155" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="153" t="n"/>
+      <c r="F57" s="155" t="n"/>
       <c r="G57" s="45" t="n"/>
-      <c r="H57" s="153" t="n"/>
+      <c r="H57" s="155" t="n"/>
       <c r="I57" s="45" t="n"/>
-      <c r="J57" s="153" t="n"/>
+      <c r="J57" s="155" t="n"/>
       <c r="K57" s="45" t="n"/>
-      <c r="L57" s="153" t="n"/>
+      <c r="L57" s="155" t="n"/>
       <c r="M57" s="14" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="44" t="n"/>
-      <c r="B58" s="153" t="n"/>
+      <c r="B58" s="155" t="n"/>
       <c r="C58" s="45" t="n"/>
-      <c r="D58" s="153" t="n"/>
+      <c r="D58" s="155" t="n"/>
       <c r="E58" s="45" t="n"/>
-      <c r="F58" s="153" t="n"/>
+      <c r="F58" s="155" t="n"/>
       <c r="G58" s="45" t="n"/>
-      <c r="H58" s="153" t="n"/>
+      <c r="H58" s="155" t="n"/>
       <c r="I58" s="45" t="n"/>
-      <c r="J58" s="153" t="n"/>
+      <c r="J58" s="155" t="n"/>
       <c r="K58" s="45" t="n"/>
-      <c r="L58" s="153" t="n"/>
+      <c r="L58" s="155" t="n"/>
       <c r="M58" s="14" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="44" t="n"/>
-      <c r="B59" s="153" t="n"/>
+      <c r="B59" s="155" t="n"/>
       <c r="C59" s="45" t="n"/>
-      <c r="D59" s="153" t="n"/>
+      <c r="D59" s="155" t="n"/>
       <c r="E59" s="45" t="n"/>
-      <c r="F59" s="153" t="n"/>
+      <c r="F59" s="155" t="n"/>
       <c r="G59" s="45" t="n"/>
-      <c r="H59" s="153" t="n"/>
+      <c r="H59" s="155" t="n"/>
       <c r="I59" s="45" t="n"/>
-      <c r="J59" s="153" t="n"/>
+      <c r="J59" s="155" t="n"/>
       <c r="K59" s="45" t="n"/>
-      <c r="L59" s="153" t="n"/>
+      <c r="L59" s="155" t="n"/>
       <c r="M59" s="14" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="44" t="n"/>
-      <c r="B60" s="153" t="n"/>
+      <c r="B60" s="155" t="n"/>
       <c r="C60" s="45" t="n"/>
-      <c r="D60" s="153" t="n"/>
+      <c r="D60" s="155" t="n"/>
       <c r="E60" s="45" t="n"/>
-      <c r="F60" s="153" t="n"/>
+      <c r="F60" s="155" t="n"/>
       <c r="G60" s="45" t="n"/>
-      <c r="H60" s="153" t="n"/>
+      <c r="H60" s="155" t="n"/>
       <c r="I60" s="45" t="n"/>
-      <c r="J60" s="153" t="n"/>
+      <c r="J60" s="155" t="n"/>
       <c r="K60" s="45" t="n"/>
-      <c r="L60" s="153" t="n"/>
+      <c r="L60" s="155" t="n"/>
       <c r="M60" s="14" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="44" t="n"/>
-      <c r="B61" s="153" t="n"/>
+      <c r="B61" s="155" t="n"/>
       <c r="C61" s="45" t="n"/>
-      <c r="D61" s="153" t="n"/>
+      <c r="D61" s="155" t="n"/>
       <c r="E61" s="45" t="n"/>
-      <c r="F61" s="153" t="n"/>
+      <c r="F61" s="155" t="n"/>
       <c r="G61" s="45" t="n"/>
-      <c r="H61" s="153" t="n"/>
+      <c r="H61" s="155" t="n"/>
       <c r="I61" s="45" t="n"/>
-      <c r="J61" s="153" t="n"/>
+      <c r="J61" s="155" t="n"/>
       <c r="K61" s="45" t="n"/>
-      <c r="L61" s="153" t="n"/>
+      <c r="L61" s="155" t="n"/>
       <c r="M61" s="14" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="44" t="n"/>
-      <c r="B62" s="153" t="n"/>
+      <c r="B62" s="155" t="n"/>
       <c r="C62" s="45" t="n"/>
-      <c r="D62" s="153" t="n"/>
+      <c r="D62" s="155" t="n"/>
       <c r="E62" s="45" t="n"/>
-      <c r="F62" s="153" t="n"/>
+      <c r="F62" s="155" t="n"/>
       <c r="G62" s="45" t="n"/>
-      <c r="H62" s="153" t="n"/>
+      <c r="H62" s="155" t="n"/>
       <c r="I62" s="45" t="n"/>
-      <c r="J62" s="153" t="n"/>
+      <c r="J62" s="155" t="n"/>
       <c r="K62" s="45" t="n"/>
-      <c r="L62" s="153" t="n"/>
+      <c r="L62" s="155" t="n"/>
       <c r="M62" s="14" t="n"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="76" thickBot="1">
       <c r="A63" s="42" t="n"/>
-      <c r="B63" s="158" t="n"/>
+      <c r="B63" s="160" t="n"/>
       <c r="C63" s="43" t="n"/>
-      <c r="D63" s="158" t="n"/>
+      <c r="D63" s="160" t="n"/>
       <c r="E63" s="43" t="n"/>
-      <c r="F63" s="158" t="n"/>
+      <c r="F63" s="160" t="n"/>
       <c r="G63" s="43" t="n"/>
-      <c r="H63" s="158" t="n"/>
+      <c r="H63" s="160" t="n"/>
       <c r="I63" s="43" t="n"/>
-      <c r="J63" s="158" t="n"/>
+      <c r="J63" s="160" t="n"/>
       <c r="K63" s="43" t="n"/>
-      <c r="L63" s="158" t="n"/>
+      <c r="L63" s="160" t="n"/>
       <c r="M63" s="15" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="76" thickTop="1"/>
   </sheetData>
   <mergeCells count="162">
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G10:M11"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="F1:I3"/>
+    <mergeCell ref="G10:M11"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="J5:K5"/>
@@ -5640,7 +5527,7 @@
     <row r="10">
       <c r="A10" s="89" t="n"/>
       <c r="F10" s="90" t="n"/>
-      <c r="G10" s="148" t="inlineStr">
+      <c r="G10" s="150" t="inlineStr">
         <is>
           <t>ESTADO (Conforme, No Conforme, No Aplica)</t>
         </is>
@@ -6312,7 +6199,7 @@
       <c r="M44" s="9" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A45" s="149" t="inlineStr">
+      <c r="A45" s="151" t="inlineStr">
         <is>
           <t>Fecha de inspeccion realizada</t>
         </is>
@@ -6331,7 +6218,7 @@
       <c r="M45" s="9" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A46" s="151" t="inlineStr">
+      <c r="A46" s="153" t="inlineStr">
         <is>
           <t>Si los hallazgos de la revisión ponen en riesgo su integridad en el desplazamiento, abstengase de movilizarse en el vehículo.</t>
         </is>
@@ -6413,236 +6300,236 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" s="76" thickTop="1">
       <c r="A49" s="127" t="n"/>
-      <c r="B49" s="152" t="n"/>
+      <c r="B49" s="154" t="n"/>
       <c r="C49" s="128" t="n"/>
-      <c r="D49" s="152" t="n"/>
+      <c r="D49" s="154" t="n"/>
       <c r="E49" s="128" t="n"/>
-      <c r="F49" s="152" t="n"/>
+      <c r="F49" s="154" t="n"/>
       <c r="G49" s="128" t="n"/>
-      <c r="H49" s="152" t="n"/>
+      <c r="H49" s="154" t="n"/>
       <c r="I49" s="128" t="n"/>
-      <c r="J49" s="152" t="n"/>
+      <c r="J49" s="154" t="n"/>
       <c r="K49" s="128" t="n"/>
-      <c r="L49" s="152" t="n"/>
+      <c r="L49" s="154" t="n"/>
       <c r="M49" s="39" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="124" t="n"/>
-      <c r="B50" s="153" t="n"/>
+      <c r="B50" s="155" t="n"/>
       <c r="C50" s="123" t="n"/>
-      <c r="D50" s="153" t="n"/>
+      <c r="D50" s="155" t="n"/>
       <c r="E50" s="123" t="n"/>
-      <c r="F50" s="153" t="n"/>
+      <c r="F50" s="155" t="n"/>
       <c r="G50" s="123" t="n"/>
-      <c r="H50" s="153" t="n"/>
+      <c r="H50" s="155" t="n"/>
       <c r="I50" s="123" t="n"/>
-      <c r="J50" s="153" t="n"/>
+      <c r="J50" s="155" t="n"/>
       <c r="K50" s="123" t="n"/>
-      <c r="L50" s="153" t="n"/>
+      <c r="L50" s="155" t="n"/>
       <c r="M50" s="40" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="124" t="n"/>
-      <c r="B51" s="153" t="n"/>
+      <c r="B51" s="155" t="n"/>
       <c r="C51" s="123" t="n"/>
-      <c r="D51" s="153" t="n"/>
+      <c r="D51" s="155" t="n"/>
       <c r="E51" s="123" t="n"/>
-      <c r="F51" s="153" t="n"/>
+      <c r="F51" s="155" t="n"/>
       <c r="G51" s="123" t="n"/>
-      <c r="H51" s="153" t="n"/>
+      <c r="H51" s="155" t="n"/>
       <c r="I51" s="123" t="n"/>
-      <c r="J51" s="153" t="n"/>
+      <c r="J51" s="155" t="n"/>
       <c r="K51" s="123" t="n"/>
-      <c r="L51" s="153" t="n"/>
+      <c r="L51" s="155" t="n"/>
       <c r="M51" s="40" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="124" t="n"/>
-      <c r="B52" s="153" t="n"/>
+      <c r="B52" s="155" t="n"/>
       <c r="C52" s="123" t="n"/>
-      <c r="D52" s="153" t="n"/>
+      <c r="D52" s="155" t="n"/>
       <c r="E52" s="123" t="n"/>
-      <c r="F52" s="153" t="n"/>
+      <c r="F52" s="155" t="n"/>
       <c r="G52" s="123" t="n"/>
-      <c r="H52" s="153" t="n"/>
+      <c r="H52" s="155" t="n"/>
       <c r="I52" s="123" t="n"/>
-      <c r="J52" s="153" t="n"/>
+      <c r="J52" s="155" t="n"/>
       <c r="K52" s="123" t="n"/>
-      <c r="L52" s="153" t="n"/>
+      <c r="L52" s="155" t="n"/>
       <c r="M52" s="40" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="124" t="n"/>
-      <c r="B53" s="153" t="n"/>
+      <c r="B53" s="155" t="n"/>
       <c r="C53" s="123" t="n"/>
-      <c r="D53" s="153" t="n"/>
+      <c r="D53" s="155" t="n"/>
       <c r="E53" s="123" t="n"/>
-      <c r="F53" s="153" t="n"/>
+      <c r="F53" s="155" t="n"/>
       <c r="G53" s="123" t="n"/>
-      <c r="H53" s="153" t="n"/>
+      <c r="H53" s="155" t="n"/>
       <c r="I53" s="123" t="n"/>
-      <c r="J53" s="153" t="n"/>
+      <c r="J53" s="155" t="n"/>
       <c r="K53" s="123" t="n"/>
-      <c r="L53" s="153" t="n"/>
+      <c r="L53" s="155" t="n"/>
       <c r="M53" s="40" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="124" t="n"/>
-      <c r="B54" s="153" t="n"/>
+      <c r="B54" s="155" t="n"/>
       <c r="C54" s="123" t="n"/>
-      <c r="D54" s="153" t="n"/>
+      <c r="D54" s="155" t="n"/>
       <c r="E54" s="123" t="n"/>
-      <c r="F54" s="153" t="n"/>
+      <c r="F54" s="155" t="n"/>
       <c r="G54" s="123" t="n"/>
-      <c r="H54" s="153" t="n"/>
+      <c r="H54" s="155" t="n"/>
       <c r="I54" s="123" t="n"/>
-      <c r="J54" s="153" t="n"/>
+      <c r="J54" s="155" t="n"/>
       <c r="K54" s="123" t="n"/>
-      <c r="L54" s="153" t="n"/>
+      <c r="L54" s="155" t="n"/>
       <c r="M54" s="40" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="124" t="n"/>
-      <c r="B55" s="153" t="n"/>
+      <c r="B55" s="155" t="n"/>
       <c r="C55" s="123" t="n"/>
-      <c r="D55" s="153" t="n"/>
+      <c r="D55" s="155" t="n"/>
       <c r="E55" s="123" t="n"/>
-      <c r="F55" s="153" t="n"/>
+      <c r="F55" s="155" t="n"/>
       <c r="G55" s="123" t="n"/>
-      <c r="H55" s="153" t="n"/>
+      <c r="H55" s="155" t="n"/>
       <c r="I55" s="123" t="n"/>
-      <c r="J55" s="153" t="n"/>
+      <c r="J55" s="155" t="n"/>
       <c r="K55" s="123" t="n"/>
-      <c r="L55" s="153" t="n"/>
+      <c r="L55" s="155" t="n"/>
       <c r="M55" s="40" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="124" t="n"/>
-      <c r="B56" s="153" t="n"/>
+      <c r="B56" s="155" t="n"/>
       <c r="C56" s="123" t="n"/>
-      <c r="D56" s="153" t="n"/>
+      <c r="D56" s="155" t="n"/>
       <c r="E56" s="123" t="n"/>
-      <c r="F56" s="153" t="n"/>
+      <c r="F56" s="155" t="n"/>
       <c r="G56" s="123" t="n"/>
-      <c r="H56" s="153" t="n"/>
+      <c r="H56" s="155" t="n"/>
       <c r="I56" s="123" t="n"/>
-      <c r="J56" s="153" t="n"/>
+      <c r="J56" s="155" t="n"/>
       <c r="K56" s="123" t="n"/>
-      <c r="L56" s="153" t="n"/>
+      <c r="L56" s="155" t="n"/>
       <c r="M56" s="40" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="124" t="n"/>
-      <c r="B57" s="153" t="n"/>
+      <c r="B57" s="155" t="n"/>
       <c r="C57" s="123" t="n"/>
-      <c r="D57" s="153" t="n"/>
+      <c r="D57" s="155" t="n"/>
       <c r="E57" s="123" t="n"/>
-      <c r="F57" s="153" t="n"/>
+      <c r="F57" s="155" t="n"/>
       <c r="G57" s="123" t="n"/>
-      <c r="H57" s="153" t="n"/>
+      <c r="H57" s="155" t="n"/>
       <c r="I57" s="123" t="n"/>
-      <c r="J57" s="153" t="n"/>
+      <c r="J57" s="155" t="n"/>
       <c r="K57" s="123" t="n"/>
-      <c r="L57" s="153" t="n"/>
+      <c r="L57" s="155" t="n"/>
       <c r="M57" s="40" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="124" t="n"/>
-      <c r="B58" s="153" t="n"/>
+      <c r="B58" s="155" t="n"/>
       <c r="C58" s="123" t="n"/>
-      <c r="D58" s="153" t="n"/>
+      <c r="D58" s="155" t="n"/>
       <c r="E58" s="123" t="n"/>
-      <c r="F58" s="153" t="n"/>
+      <c r="F58" s="155" t="n"/>
       <c r="G58" s="123" t="n"/>
-      <c r="H58" s="153" t="n"/>
+      <c r="H58" s="155" t="n"/>
       <c r="I58" s="123" t="n"/>
-      <c r="J58" s="153" t="n"/>
+      <c r="J58" s="155" t="n"/>
       <c r="K58" s="123" t="n"/>
-      <c r="L58" s="153" t="n"/>
+      <c r="L58" s="155" t="n"/>
       <c r="M58" s="40" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="124" t="n"/>
-      <c r="B59" s="153" t="n"/>
+      <c r="B59" s="155" t="n"/>
       <c r="C59" s="123" t="n"/>
-      <c r="D59" s="153" t="n"/>
+      <c r="D59" s="155" t="n"/>
       <c r="E59" s="123" t="n"/>
-      <c r="F59" s="153" t="n"/>
+      <c r="F59" s="155" t="n"/>
       <c r="G59" s="123" t="n"/>
-      <c r="H59" s="153" t="n"/>
+      <c r="H59" s="155" t="n"/>
       <c r="I59" s="123" t="n"/>
-      <c r="J59" s="153" t="n"/>
+      <c r="J59" s="155" t="n"/>
       <c r="K59" s="123" t="n"/>
-      <c r="L59" s="153" t="n"/>
+      <c r="L59" s="155" t="n"/>
       <c r="M59" s="40" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="124" t="n"/>
-      <c r="B60" s="153" t="n"/>
+      <c r="B60" s="155" t="n"/>
       <c r="C60" s="123" t="n"/>
-      <c r="D60" s="153" t="n"/>
+      <c r="D60" s="155" t="n"/>
       <c r="E60" s="123" t="n"/>
-      <c r="F60" s="153" t="n"/>
+      <c r="F60" s="155" t="n"/>
       <c r="G60" s="123" t="n"/>
-      <c r="H60" s="153" t="n"/>
+      <c r="H60" s="155" t="n"/>
       <c r="I60" s="123" t="n"/>
-      <c r="J60" s="153" t="n"/>
+      <c r="J60" s="155" t="n"/>
       <c r="K60" s="123" t="n"/>
-      <c r="L60" s="153" t="n"/>
+      <c r="L60" s="155" t="n"/>
       <c r="M60" s="40" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="124" t="n"/>
-      <c r="B61" s="153" t="n"/>
+      <c r="B61" s="155" t="n"/>
       <c r="C61" s="123" t="n"/>
-      <c r="D61" s="153" t="n"/>
+      <c r="D61" s="155" t="n"/>
       <c r="E61" s="123" t="n"/>
-      <c r="F61" s="153" t="n"/>
+      <c r="F61" s="155" t="n"/>
       <c r="G61" s="123" t="n"/>
-      <c r="H61" s="153" t="n"/>
+      <c r="H61" s="155" t="n"/>
       <c r="I61" s="123" t="n"/>
-      <c r="J61" s="153" t="n"/>
+      <c r="J61" s="155" t="n"/>
       <c r="K61" s="123" t="n"/>
-      <c r="L61" s="153" t="n"/>
+      <c r="L61" s="155" t="n"/>
       <c r="M61" s="40" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="124" t="n"/>
-      <c r="B62" s="153" t="n"/>
+      <c r="B62" s="155" t="n"/>
       <c r="C62" s="123" t="n"/>
-      <c r="D62" s="153" t="n"/>
+      <c r="D62" s="155" t="n"/>
       <c r="E62" s="123" t="n"/>
-      <c r="F62" s="153" t="n"/>
+      <c r="F62" s="155" t="n"/>
       <c r="G62" s="123" t="n"/>
-      <c r="H62" s="153" t="n"/>
+      <c r="H62" s="155" t="n"/>
       <c r="I62" s="123" t="n"/>
-      <c r="J62" s="153" t="n"/>
+      <c r="J62" s="155" t="n"/>
       <c r="K62" s="123" t="n"/>
-      <c r="L62" s="153" t="n"/>
+      <c r="L62" s="155" t="n"/>
       <c r="M62" s="40" t="n"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="76" thickBot="1">
       <c r="A63" s="125" t="n"/>
-      <c r="B63" s="158" t="n"/>
+      <c r="B63" s="160" t="n"/>
       <c r="C63" s="126" t="n"/>
-      <c r="D63" s="158" t="n"/>
+      <c r="D63" s="160" t="n"/>
       <c r="E63" s="126" t="n"/>
-      <c r="F63" s="158" t="n"/>
+      <c r="F63" s="160" t="n"/>
       <c r="G63" s="126" t="n"/>
-      <c r="H63" s="158" t="n"/>
+      <c r="H63" s="160" t="n"/>
       <c r="I63" s="126" t="n"/>
-      <c r="J63" s="158" t="n"/>
+      <c r="J63" s="160" t="n"/>
       <c r="K63" s="126" t="n"/>
-      <c r="L63" s="158" t="n"/>
+      <c r="L63" s="160" t="n"/>
       <c r="M63" s="41" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="76" thickTop="1"/>
   </sheetData>
   <mergeCells count="162">
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G10:M11"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="F1:I3"/>
+    <mergeCell ref="G10:M11"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="J5:K5"/>
@@ -7062,7 +6949,7 @@
     <row r="10">
       <c r="A10" s="89" t="n"/>
       <c r="F10" s="90" t="n"/>
-      <c r="G10" s="148" t="inlineStr">
+      <c r="G10" s="150" t="inlineStr">
         <is>
           <t>ESTADO (Conforme, No Conforme, No Aplica)</t>
         </is>
@@ -7734,7 +7621,7 @@
       <c r="M44" s="9" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A45" s="149" t="inlineStr">
+      <c r="A45" s="151" t="inlineStr">
         <is>
           <t>Fecha de inspeccion realizada</t>
         </is>
@@ -7753,7 +7640,7 @@
       <c r="M45" s="9" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="76" thickBot="1">
-      <c r="A46" s="151" t="inlineStr">
+      <c r="A46" s="153" t="inlineStr">
         <is>
           <t>Si los hallazgos de la revisión ponen en riesgo su integridad en el desplazamiento, abstengase de movilizarse en el vehículo.</t>
         </is>
@@ -7835,236 +7722,236 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" s="76" thickTop="1">
       <c r="A49" s="46" t="n"/>
-      <c r="B49" s="152" t="n"/>
+      <c r="B49" s="154" t="n"/>
       <c r="C49" s="47" t="n"/>
-      <c r="D49" s="152" t="n"/>
+      <c r="D49" s="154" t="n"/>
       <c r="E49" s="47" t="n"/>
-      <c r="F49" s="152" t="n"/>
+      <c r="F49" s="154" t="n"/>
       <c r="G49" s="47" t="n"/>
-      <c r="H49" s="152" t="n"/>
+      <c r="H49" s="154" t="n"/>
       <c r="I49" s="47" t="n"/>
-      <c r="J49" s="152" t="n"/>
+      <c r="J49" s="154" t="n"/>
       <c r="K49" s="47" t="n"/>
-      <c r="L49" s="152" t="n"/>
+      <c r="L49" s="154" t="n"/>
       <c r="M49" s="13" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="44" t="n"/>
-      <c r="B50" s="153" t="n"/>
+      <c r="B50" s="155" t="n"/>
       <c r="C50" s="45" t="n"/>
-      <c r="D50" s="153" t="n"/>
+      <c r="D50" s="155" t="n"/>
       <c r="E50" s="45" t="n"/>
-      <c r="F50" s="153" t="n"/>
+      <c r="F50" s="155" t="n"/>
       <c r="G50" s="45" t="n"/>
-      <c r="H50" s="153" t="n"/>
+      <c r="H50" s="155" t="n"/>
       <c r="I50" s="45" t="n"/>
-      <c r="J50" s="153" t="n"/>
+      <c r="J50" s="155" t="n"/>
       <c r="K50" s="45" t="n"/>
-      <c r="L50" s="153" t="n"/>
+      <c r="L50" s="155" t="n"/>
       <c r="M50" s="14" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="44" t="n"/>
-      <c r="B51" s="153" t="n"/>
+      <c r="B51" s="155" t="n"/>
       <c r="C51" s="45" t="n"/>
-      <c r="D51" s="153" t="n"/>
+      <c r="D51" s="155" t="n"/>
       <c r="E51" s="45" t="n"/>
-      <c r="F51" s="153" t="n"/>
+      <c r="F51" s="155" t="n"/>
       <c r="G51" s="45" t="n"/>
-      <c r="H51" s="153" t="n"/>
+      <c r="H51" s="155" t="n"/>
       <c r="I51" s="45" t="n"/>
-      <c r="J51" s="153" t="n"/>
+      <c r="J51" s="155" t="n"/>
       <c r="K51" s="45" t="n"/>
-      <c r="L51" s="153" t="n"/>
+      <c r="L51" s="155" t="n"/>
       <c r="M51" s="14" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="44" t="n"/>
-      <c r="B52" s="153" t="n"/>
+      <c r="B52" s="155" t="n"/>
       <c r="C52" s="45" t="n"/>
-      <c r="D52" s="153" t="n"/>
+      <c r="D52" s="155" t="n"/>
       <c r="E52" s="45" t="n"/>
-      <c r="F52" s="153" t="n"/>
+      <c r="F52" s="155" t="n"/>
       <c r="G52" s="45" t="n"/>
-      <c r="H52" s="153" t="n"/>
+      <c r="H52" s="155" t="n"/>
       <c r="I52" s="45" t="n"/>
-      <c r="J52" s="153" t="n"/>
+      <c r="J52" s="155" t="n"/>
       <c r="K52" s="45" t="n"/>
-      <c r="L52" s="153" t="n"/>
+      <c r="L52" s="155" t="n"/>
       <c r="M52" s="14" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="44" t="n"/>
-      <c r="B53" s="153" t="n"/>
+      <c r="B53" s="155" t="n"/>
       <c r="C53" s="45" t="n"/>
-      <c r="D53" s="153" t="n"/>
+      <c r="D53" s="155" t="n"/>
       <c r="E53" s="45" t="n"/>
-      <c r="F53" s="153" t="n"/>
+      <c r="F53" s="155" t="n"/>
       <c r="G53" s="45" t="n"/>
-      <c r="H53" s="153" t="n"/>
+      <c r="H53" s="155" t="n"/>
       <c r="I53" s="45" t="n"/>
-      <c r="J53" s="153" t="n"/>
+      <c r="J53" s="155" t="n"/>
       <c r="K53" s="45" t="n"/>
-      <c r="L53" s="153" t="n"/>
+      <c r="L53" s="155" t="n"/>
       <c r="M53" s="14" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="44" t="n"/>
-      <c r="B54" s="153" t="n"/>
+      <c r="B54" s="155" t="n"/>
       <c r="C54" s="45" t="n"/>
-      <c r="D54" s="153" t="n"/>
+      <c r="D54" s="155" t="n"/>
       <c r="E54" s="45" t="n"/>
-      <c r="F54" s="153" t="n"/>
+      <c r="F54" s="155" t="n"/>
       <c r="G54" s="45" t="n"/>
-      <c r="H54" s="153" t="n"/>
+      <c r="H54" s="155" t="n"/>
       <c r="I54" s="45" t="n"/>
-      <c r="J54" s="153" t="n"/>
+      <c r="J54" s="155" t="n"/>
       <c r="K54" s="45" t="n"/>
-      <c r="L54" s="153" t="n"/>
+      <c r="L54" s="155" t="n"/>
       <c r="M54" s="14" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="44" t="n"/>
-      <c r="B55" s="153" t="n"/>
+      <c r="B55" s="155" t="n"/>
       <c r="C55" s="45" t="n"/>
-      <c r="D55" s="153" t="n"/>
+      <c r="D55" s="155" t="n"/>
       <c r="E55" s="45" t="n"/>
-      <c r="F55" s="153" t="n"/>
+      <c r="F55" s="155" t="n"/>
       <c r="G55" s="45" t="n"/>
-      <c r="H55" s="153" t="n"/>
+      <c r="H55" s="155" t="n"/>
       <c r="I55" s="45" t="n"/>
-      <c r="J55" s="153" t="n"/>
+      <c r="J55" s="155" t="n"/>
       <c r="K55" s="45" t="n"/>
-      <c r="L55" s="153" t="n"/>
+      <c r="L55" s="155" t="n"/>
       <c r="M55" s="14" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="44" t="n"/>
-      <c r="B56" s="153" t="n"/>
+      <c r="B56" s="155" t="n"/>
       <c r="C56" s="45" t="n"/>
-      <c r="D56" s="153" t="n"/>
+      <c r="D56" s="155" t="n"/>
       <c r="E56" s="45" t="n"/>
-      <c r="F56" s="153" t="n"/>
+      <c r="F56" s="155" t="n"/>
       <c r="G56" s="45" t="n"/>
-      <c r="H56" s="153" t="n"/>
+      <c r="H56" s="155" t="n"/>
       <c r="I56" s="45" t="n"/>
-      <c r="J56" s="153" t="n"/>
+      <c r="J56" s="155" t="n"/>
       <c r="K56" s="45" t="n"/>
-      <c r="L56" s="153" t="n"/>
+      <c r="L56" s="155" t="n"/>
       <c r="M56" s="14" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="44" t="n"/>
-      <c r="B57" s="153" t="n"/>
+      <c r="B57" s="155" t="n"/>
       <c r="C57" s="45" t="n"/>
-      <c r="D57" s="153" t="n"/>
+      <c r="D57" s="155" t="n"/>
       <c r="E57" s="45" t="n"/>
-      <c r="F57" s="153" t="n"/>
+      <c r="F57" s="155" t="n"/>
       <c r="G57" s="45" t="n"/>
-      <c r="H57" s="153" t="n"/>
+      <c r="H57" s="155" t="n"/>
       <c r="I57" s="45" t="n"/>
-      <c r="J57" s="153" t="n"/>
+      <c r="J57" s="155" t="n"/>
       <c r="K57" s="45" t="n"/>
-      <c r="L57" s="153" t="n"/>
+      <c r="L57" s="155" t="n"/>
       <c r="M57" s="14" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="44" t="n"/>
-      <c r="B58" s="153" t="n"/>
+      <c r="B58" s="155" t="n"/>
       <c r="C58" s="45" t="n"/>
-      <c r="D58" s="153" t="n"/>
+      <c r="D58" s="155" t="n"/>
       <c r="E58" s="45" t="n"/>
-      <c r="F58" s="153" t="n"/>
+      <c r="F58" s="155" t="n"/>
       <c r="G58" s="45" t="n"/>
-      <c r="H58" s="153" t="n"/>
+      <c r="H58" s="155" t="n"/>
       <c r="I58" s="45" t="n"/>
-      <c r="J58" s="153" t="n"/>
+      <c r="J58" s="155" t="n"/>
       <c r="K58" s="45" t="n"/>
-      <c r="L58" s="153" t="n"/>
+      <c r="L58" s="155" t="n"/>
       <c r="M58" s="14" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="44" t="n"/>
-      <c r="B59" s="153" t="n"/>
+      <c r="B59" s="155" t="n"/>
       <c r="C59" s="45" t="n"/>
-      <c r="D59" s="153" t="n"/>
+      <c r="D59" s="155" t="n"/>
       <c r="E59" s="45" t="n"/>
-      <c r="F59" s="153" t="n"/>
+      <c r="F59" s="155" t="n"/>
       <c r="G59" s="45" t="n"/>
-      <c r="H59" s="153" t="n"/>
+      <c r="H59" s="155" t="n"/>
       <c r="I59" s="45" t="n"/>
-      <c r="J59" s="153" t="n"/>
+      <c r="J59" s="155" t="n"/>
       <c r="K59" s="45" t="n"/>
-      <c r="L59" s="153" t="n"/>
+      <c r="L59" s="155" t="n"/>
       <c r="M59" s="14" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="44" t="n"/>
-      <c r="B60" s="153" t="n"/>
+      <c r="B60" s="155" t="n"/>
       <c r="C60" s="45" t="n"/>
-      <c r="D60" s="153" t="n"/>
+      <c r="D60" s="155" t="n"/>
       <c r="E60" s="45" t="n"/>
-      <c r="F60" s="153" t="n"/>
+      <c r="F60" s="155" t="n"/>
       <c r="G60" s="45" t="n"/>
-      <c r="H60" s="153" t="n"/>
+      <c r="H60" s="155" t="n"/>
       <c r="I60" s="45" t="n"/>
-      <c r="J60" s="153" t="n"/>
+      <c r="J60" s="155" t="n"/>
       <c r="K60" s="45" t="n"/>
-      <c r="L60" s="153" t="n"/>
+      <c r="L60" s="155" t="n"/>
       <c r="M60" s="14" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="44" t="n"/>
-      <c r="B61" s="153" t="n"/>
+      <c r="B61" s="155" t="n"/>
       <c r="C61" s="45" t="n"/>
-      <c r="D61" s="153" t="n"/>
+      <c r="D61" s="155" t="n"/>
       <c r="E61" s="45" t="n"/>
-      <c r="F61" s="153" t="n"/>
+      <c r="F61" s="155" t="n"/>
       <c r="G61" s="45" t="n"/>
-      <c r="H61" s="153" t="n"/>
+      <c r="H61" s="155" t="n"/>
       <c r="I61" s="45" t="n"/>
-      <c r="J61" s="153" t="n"/>
+      <c r="J61" s="155" t="n"/>
       <c r="K61" s="45" t="n"/>
-      <c r="L61" s="153" t="n"/>
+      <c r="L61" s="155" t="n"/>
       <c r="M61" s="14" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="44" t="n"/>
-      <c r="B62" s="153" t="n"/>
+      <c r="B62" s="155" t="n"/>
       <c r="C62" s="45" t="n"/>
-      <c r="D62" s="153" t="n"/>
+      <c r="D62" s="155" t="n"/>
       <c r="E62" s="45" t="n"/>
-      <c r="F62" s="153" t="n"/>
+      <c r="F62" s="155" t="n"/>
       <c r="G62" s="45" t="n"/>
-      <c r="H62" s="153" t="n"/>
+      <c r="H62" s="155" t="n"/>
       <c r="I62" s="45" t="n"/>
-      <c r="J62" s="153" t="n"/>
+      <c r="J62" s="155" t="n"/>
       <c r="K62" s="45" t="n"/>
-      <c r="L62" s="153" t="n"/>
+      <c r="L62" s="155" t="n"/>
       <c r="M62" s="14" t="n"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="76" thickBot="1">
       <c r="A63" s="42" t="n"/>
-      <c r="B63" s="158" t="n"/>
+      <c r="B63" s="160" t="n"/>
       <c r="C63" s="43" t="n"/>
-      <c r="D63" s="158" t="n"/>
+      <c r="D63" s="160" t="n"/>
       <c r="E63" s="43" t="n"/>
-      <c r="F63" s="158" t="n"/>
+      <c r="F63" s="160" t="n"/>
       <c r="G63" s="43" t="n"/>
-      <c r="H63" s="158" t="n"/>
+      <c r="H63" s="160" t="n"/>
       <c r="I63" s="43" t="n"/>
-      <c r="J63" s="158" t="n"/>
+      <c r="J63" s="160" t="n"/>
       <c r="K63" s="43" t="n"/>
-      <c r="L63" s="158" t="n"/>
+      <c r="L63" s="160" t="n"/>
       <c r="M63" s="15" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="76" thickTop="1"/>
   </sheetData>
   <mergeCells count="162">
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G10:M11"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="F1:I3"/>
+    <mergeCell ref="G10:M11"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="J5:K5"/>
